--- a/medicine/Psychotrope/Les_Caves_Rocbère/Les_Caves_Rocbère.xlsx
+++ b/medicine/Psychotrope/Les_Caves_Rocbère/Les_Caves_Rocbère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Caves_Rocb%C3%A8re</t>
+          <t>Les_Caves_Rocbère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caves Rocbère sont issues du regroupement de trois caves coopératives du sud de la France. Ce sont le principal producteur d'AOC Corbières.
  Portail de la vigne et du vin   Portail du Languedoc-Roussillon                    </t>
